--- a/SCBAA/2020/Region 3.xlsx
+++ b/SCBAA/2020/Region 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC6D61-2947-4B31-BF49-A95942BDD12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8874BD9-731E-470F-AC89-ADD0F13812CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="240" windowWidth="14625" windowHeight="12540" firstSheet="9" activeTab="11" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="9" activeTab="11" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanga" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -286,7 +293,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="168" formatCode="_(&quot;₱&quot;* #,##0.00_);_(&quot;₱&quot;* \(#,##0.00\);_(&quot;₱&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +418,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -523,7 +536,7 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,6 +726,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -4618,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AB9F7-2B35-45AC-AD80-293C188170D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,7 +4762,9 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -4751,7 +4773,9 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -4760,7 +4784,9 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -4790,7 +4816,9 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -4799,7 +4827,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="50"/>
+      <c r="E17" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -4808,7 +4838,9 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -4818,7 +4850,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +4870,9 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -4847,7 +4881,9 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -4856,7 +4892,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -4865,7 +4901,9 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -4874,7 +4912,9 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -4883,7 +4923,9 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -4892,7 +4934,9 @@
       <c r="D27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -4910,7 +4954,9 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="65"/>
+      <c r="E29" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -4919,7 +4965,9 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="50"/>
+      <c r="E30" s="82">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -4928,7 +4976,9 @@
         <v>41</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -4946,7 +4996,9 @@
       <c r="D33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="64"/>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -4955,7 +5007,9 @@
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -4964,7 +5018,9 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -4973,7 +5029,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -5028,7 +5086,9 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="50"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -5037,7 +5097,9 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="50"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -5046,7 +5108,9 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="50"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -5055,7 +5119,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -5064,7 +5128,9 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="50"/>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -5073,7 +5139,9 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="50"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -5082,7 +5150,9 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="67"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -5100,7 +5170,9 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="50"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -5109,7 +5181,9 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="50"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -5118,7 +5192,9 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="61"/>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -5136,7 +5212,9 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -5145,7 +5223,9 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="50"/>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -5154,7 +5234,9 @@
       <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="61"/>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5163,7 +5245,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5172,7 +5254,9 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -5181,7 +5265,9 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="61"/>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -5190,7 +5276,9 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -5208,7 +5296,9 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="50"/>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5217,7 +5307,9 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="50"/>
+      <c r="E63" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5226,7 +5318,9 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="61"/>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -5244,7 +5338,9 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="50"/>
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -5253,7 +5349,9 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="50"/>
+      <c r="E67" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -5262,7 +5360,9 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="50"/>
+      <c r="E68" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -5280,7 +5380,9 @@
       <c r="D70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -5289,7 +5391,9 @@
       <c r="D71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -5298,7 +5402,9 @@
       <c r="D72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="28"/>
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -5325,7 +5431,9 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -5334,7 +5442,9 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="67"/>
+      <c r="E76" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -5343,7 +5453,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="82"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5352,7 +5462,9 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="50"/>
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -5361,7 +5473,9 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="61"/>
+      <c r="E79" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -5370,7 +5484,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="81"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -5379,7 +5493,9 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="50"/>
+      <c r="E81" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -5388,7 +5504,9 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="50"/>
+      <c r="E82" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -5406,7 +5524,9 @@
       <c r="D84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -5415,7 +5535,9 @@
       <c r="D85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -5433,7 +5555,9 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="50"/>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -5442,7 +5566,9 @@
       <c r="D88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="61"/>
+      <c r="E88" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -5460,7 +5586,9 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="62"/>
+      <c r="E90" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -5469,7 +5597,9 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="50"/>
+      <c r="E91" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -5478,7 +5608,9 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="61"/>
+      <c r="E92" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
@@ -5517,7 +5649,9 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="50"/>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -5541,7 +5675,9 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="59"/>
+      <c r="E98" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -5557,7 +5693,9 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="18"/>
+      <c r="E100" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -5573,7 +5711,9 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -5589,7 +5729,9 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="18"/>
+      <c r="E104" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -5605,7 +5747,9 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="18"/>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -5621,7 +5765,9 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -5638,7 +5784,9 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="50"/>
+      <c r="E110" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">

--- a/SCBAA/2020/Region 3.xlsx
+++ b/SCBAA/2020/Region 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8874BD9-731E-470F-AC89-ADD0F13812CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8B3CA-4DC1-4996-B151-8BA84C6295DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="9" activeTab="11" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanga" sheetId="1" r:id="rId1"/>
@@ -715,6 +715,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,13 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C98" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,54 +1086,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1147,22 +1147,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1711,7 +1711,9 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -2273,54 +2275,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2334,22 +2336,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3462,54 +3464,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3523,22 +3525,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4638,8 +4640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AB9F7-2B35-45AC-AD80-293C188170D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,54 +4653,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4712,22 +4714,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4773,7 +4775,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4784,7 +4786,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4816,7 +4818,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4827,7 +4829,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +4840,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4870,7 +4872,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="80">
+      <c r="E21" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4892,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="81"/>
+      <c r="E23" s="77"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -4912,7 +4914,7 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4923,7 +4925,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4954,7 +4956,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="76">
         <v>0</v>
       </c>
     </row>
@@ -4965,7 +4967,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="78">
         <v>0</v>
       </c>
     </row>
@@ -5453,7 +5455,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="82"/>
+      <c r="E77" s="78"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5484,7 +5486,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="81"/>
+      <c r="E80" s="77"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -5840,54 +5842,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5901,22 +5903,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7029,54 +7031,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7090,22 +7092,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8223,54 +8225,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8284,22 +8286,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -9399,8 +9401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9F19C2-42FE-4CFD-9E93-248087368D6E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,54 +9414,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -9473,22 +9475,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10038,7 +10040,9 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -10600,54 +10604,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10661,22 +10665,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -11788,54 +11792,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -11849,22 +11853,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12978,54 +12982,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -13039,22 +13043,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -14167,54 +14171,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -14228,22 +14232,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -15356,54 +15360,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -15417,22 +15421,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -16545,54 +16549,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -16606,22 +16610,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">

--- a/SCBAA/2020/Region 3.xlsx
+++ b/SCBAA/2020/Region 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8B3CA-4DC1-4996-B151-8BA84C6295DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC840BC-B98D-4751-9183-5537DAB6130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanga" sheetId="1" r:id="rId1"/>
@@ -9401,8 +9401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9F19C2-42FE-4CFD-9E93-248087368D6E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9559,7 +9559,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>773162703.6500001</v>
       </c>
     </row>
@@ -9591,7 +9590,6 @@
         <v>28</v>
       </c>
       <c r="E17" s="37">
-        <f>34860690.73-193662.46</f>
         <v>34667028.269999996</v>
       </c>
     </row>
@@ -9614,7 +9612,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>110689216.94999999</v>
       </c>
     </row>
@@ -9805,7 +9802,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1629222728.8800001</v>
       </c>
     </row>
@@ -10382,7 +10378,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1334888503.4977789</v>
       </c>
     </row>
@@ -10557,7 +10552,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -10569,7 +10563,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1334888503.4977789</v>
       </c>
     </row>
